--- a/output/CodeSystem-cgm-metrics-cs.xlsx
+++ b/output/CodeSystem-cgm-metrics-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>19</t>
+    <t>21</t>
   </si>
   <si>
     <t>Level</t>
@@ -192,13 +192,22 @@
     <t>Percentage of time glucose is below target (&lt;70 mg/dL)</t>
   </si>
   <si>
+    <t>tbr-l1</t>
+  </si>
+  <si>
+    <t>Time Below Range Level 1</t>
+  </si>
+  <si>
+    <t>Percentage of time in Level 1 hypoglycemia (54-69 mg/dL)</t>
+  </si>
+  <si>
     <t>tbr-l2</t>
   </si>
   <si>
     <t>Time Below Range Level 2</t>
   </si>
   <si>
-    <t>Percentage of time in severe hypoglycemia (&lt;54 mg/dL)</t>
+    <t>Percentage of time in Level 2 hypoglycemia (&lt;54 mg/dL)</t>
   </si>
   <si>
     <t>tar</t>
@@ -210,13 +219,22 @@
     <t>Percentage of time glucose is above target (&gt;180 mg/dL)</t>
   </si>
   <si>
+    <t>tar-l1</t>
+  </si>
+  <si>
+    <t>Time Above Range Level 1</t>
+  </si>
+  <si>
+    <t>Percentage of time in Level 1 hyperglycemia (181-250 mg/dL)</t>
+  </si>
+  <si>
     <t>tar-l2</t>
   </si>
   <si>
     <t>Time Above Range Level 2</t>
   </si>
   <si>
-    <t>Percentage of time in severe hyperglycemia (&gt;250 mg/dL)</t>
+    <t>Percentage of time in Level 2 hyperglycemia (&gt;250 mg/dL)</t>
   </si>
   <si>
     <t>mean</t>
@@ -677,7 +695,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,6 +981,34 @@
         <v>103</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
